--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data13.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data13.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2683215053511059</v>
+        <v>0.26831873908267334</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09282942775318694</v>
+        <v>-0.09286894104308709</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22960176306582514</v>
+        <v>0.229585520111199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.26305683931527035</v>
+        <v>0.2631103666419368</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
